--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BB294E-A99B-ED4C-BB67-3A7A72874F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA97F2-99B7-7243-B20E-85FE1D6ABF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3A97475B-2925-5D41-B0B7-A53E7C9F7F79}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
